--- a/Issuing/br/BR_States&Zip_Codes_Ranges.xlsx
+++ b/Issuing/br/BR_States&Zip_Codes_Ranges.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/majogasser/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RafaelSimon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2490B9E5-5856-9248-A3A6-996DDA8FC77E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6B4996-502B-4370-9EC3-2FE516B6A155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="14700" xr2:uid="{D08CA161-0ED8-344F-BEEA-80F7F37FDE35}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D08CA161-0ED8-344F-BEEA-80F7F37FDE35}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -272,7 +272,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -570,21 +570,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D9691B-5E10-6347-953F-58FB17FDF75C}">
   <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.296875" style="2" customWidth="1"/>
     <col min="4" max="4" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="15.296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
@@ -592,13 +592,13 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -612,7 +612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="7">
         <v>1</v>
       </c>
@@ -626,7 +626,7 @@
         <v>69999999</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="8">
         <v>2</v>
       </c>
@@ -640,7 +640,7 @@
         <v>57999999</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="7">
         <v>3</v>
       </c>
@@ -654,7 +654,7 @@
         <v>68999999</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="7">
         <v>4</v>
       </c>
@@ -668,7 +668,7 @@
         <v>69899999</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="8">
         <v>5</v>
       </c>
@@ -682,7 +682,7 @@
         <v>48999999</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="7">
         <v>6</v>
       </c>
@@ -696,7 +696,7 @@
         <v>63999999</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="7">
         <v>7</v>
       </c>
@@ -710,7 +710,7 @@
         <v>73699999</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="8">
         <v>8</v>
       </c>
@@ -724,7 +724,7 @@
         <v>29999999</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="7">
         <v>9</v>
       </c>
@@ -738,7 +738,7 @@
         <v>76799999</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="7">
         <v>10</v>
       </c>
@@ -752,7 +752,7 @@
         <v>65999999</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="8">
         <v>11</v>
       </c>
@@ -766,7 +766,7 @@
         <v>78899999</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="7">
         <v>12</v>
       </c>
@@ -780,7 +780,7 @@
         <v>79999999</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="7">
         <v>13</v>
       </c>
@@ -794,7 +794,7 @@
         <v>39999999</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="8">
         <v>14</v>
       </c>
@@ -808,7 +808,7 @@
         <v>68899999</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="7">
         <v>15</v>
       </c>
@@ -822,7 +822,7 @@
         <v>58999999</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="7">
         <v>16</v>
       </c>
@@ -836,7 +836,7 @@
         <v>87999999</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="8">
         <v>17</v>
       </c>
@@ -850,7 +850,7 @@
         <v>56999999</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="7">
         <v>18</v>
       </c>
@@ -864,7 +864,7 @@
         <v>64999999</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="7">
         <v>19</v>
       </c>
@@ -878,7 +878,7 @@
         <v>59999999</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="8">
         <v>20</v>
       </c>
@@ -892,7 +892,7 @@
         <v>99999999</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="7">
         <v>21</v>
       </c>
@@ -906,7 +906,7 @@
         <v>28999999</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="7">
         <v>22</v>
       </c>
@@ -914,13 +914,13 @@
         <v>26</v>
       </c>
       <c r="D26" s="6">
-        <v>78900000</v>
+        <v>76800000</v>
       </c>
       <c r="E26" s="6">
-        <v>78999999</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+        <v>76999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="8">
         <v>23</v>
       </c>
@@ -934,7 +934,7 @@
         <v>69399999</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="7">
         <v>24</v>
       </c>
@@ -948,7 +948,7 @@
         <v>89999999</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="7">
         <v>25</v>
       </c>
@@ -962,7 +962,7 @@
         <v>19999999</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="8">
         <v>26</v>
       </c>
@@ -976,7 +976,7 @@
         <v>49999999</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="7">
         <v>27</v>
       </c>
@@ -990,7 +990,7 @@
         <v>77999999</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -998,5 +998,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>